--- a/medicine/Enfance/Olov_Svedelid/Olov_Svedelid.xlsx
+++ b/medicine/Enfance/Olov_Svedelid/Olov_Svedelid.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Olov Svedelid est un auteur suédois né à Stockholm le 26 août 1932 et décédé à Stocksund le 22 septembre 2008, surtout connu pour ses romans policiers.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après avoir exercé divers petits métiers, puis le journalisme pendant de nombreuses années, il décide de se consacrer uniquement à l'écriture. Auteur prolifique, il publie entre 1964 et 2008 plus de deux cents récits. Au gré de cette vaste production, il aborde les genres les plus divers : roman psychologique, roman social, roman historique, littérature d'enfance et de jeunesse.
 Il est toutefois mieux connu, en Suède comme ailleurs, pour ses romans policiers. Le premier, qu'il publie en 1964, a pour héros le reporter et détective amateur Ralf Krook. Après quelques aventures, Svedelid abandonne ce personnage pour créer l'inspecteur Roland Hassel, un officier de police de Stockholm qui enquête avec ses collègues dans une vingtaine de récits de procédure policière où est décrite avec acuité une société suédoise aux prises avec une criminalité de plus en plus violente et gangrenée par la mafia. Plusieurs des aventures de ce héros ont été adaptées par la télévision suédoise.
@@ -547,14 +561,61 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Romans
-Série Ralf Krook
-Döden tystar mun (1964)
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Ralf Krook</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Döden tystar mun (1964)
 En säljare är död (1967)
 Samtal från en död (1970)
 Skål för döden (1971) Publié en français sous le titre À la santé du mort, Paris, Librairie des Champs-Élysées, Le Masque no 1354, 1974
-Döden fyller hundra (1972)
-Série Roland Hassel
+Döden fyller hundra (1972)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Série Roland Hassel</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Anmäld försvunnen (1972)
 Svarta banken (1973)
 Beskyddarna (1974) Publié en français sous le titre Les Protecteurs, Paris, Librairie des Champs-Élysées, Le Masque no 1525, 1978
@@ -584,7 +645,47 @@
 Främlingarna (2003)
 Hassel och Osiris hämnd (2003)
 Död i ruta ett (2004)
-Série Samuel Rosenbaum en collaboration avec Leif Silbersky
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Série Samuel Rosenbaum en collaboration avec Leif Silbersky</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Sista vittnet (1977)
 Straffspark (1978)
 Bländverk (1979)
@@ -607,8 +708,47 @@
 Den sista lögnen (2000)
 Upplösningen (2002)
 Hämnden är aldrig rättvis (2006)
-Série Betongrosorna
-Betongrosorna och de falska nycklarna (1977)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Série Betongrosorna</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Betongrosorna och de falska nycklarna (1977)
 Betongrosorna och centrumligan (1978)
 Betongrosorna och bränderna (1979)
 Betongrosorna och damen som försvann (1981)
@@ -617,10 +757,87 @@
 Betongrosorna och hotelsebreven (1986)
 Betongrosorna och bedragaren (1988)
 Betongrosorna och det hemliga märket (1992)
-Betongrosorna och de falska sedlarna (1994)
-Roman signé Martin Frost
-Farval Mr. President (1973)
-Autres publications
+Betongrosorna och de falska sedlarna (1994)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Roman signé Martin Frost</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t>Farval Mr. President (1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Olov_Svedelid</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Mord bäste broder (1974)
 Gullmans (1975)
 Anbud från döden (1975)
@@ -696,31 +913,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
         <is>
           <t>Olov_Svedelid</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C10" t="inlineStr">
         <is>
           <t>Portail:Enfance/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D10" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Olov_Svedelid</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E10" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F10" t="inlineStr"/>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 422-423.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 2 : J - Z, Nantes, Joseph K, coll. « Temps noir », 2007, 1086 p. (ISBN 978-2-910-68645-1, OCLC 315873361), p. 845.</t>
